--- a/Other/Obsidian_Degree_Riddick_Scale_Ranking_Algorithm_v0.01.000_MINOR_HANDLE.xlsx
+++ b/Other/Obsidian_Degree_Riddick_Scale_Ranking_Algorithm_v0.01.000_MINOR_HANDLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Dropbox\Projects - Personal\Partnerships\0. Warwick University\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898C5AC-E240-49CB-8304-98C2B1DF7D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C151B6C2-F1DB-4A79-AB21-17627E26ED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="117">
   <si>
     <t>Segment/Year_Name</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Instance_Date</t>
+  </si>
+  <si>
+    <t>16/09/2022</t>
   </si>
 </sst>
 </file>
@@ -982,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF6" sqref="A6:AF6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,7 +1367,7 @@
         <v>48</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
@@ -1496,7 +1499,7 @@
         <v>50</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
@@ -1628,7 +1631,7 @@
         <v>50</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
@@ -1760,7 +1763,7 @@
         <v>55</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
@@ -1892,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>50</v>
@@ -2024,7 +2027,7 @@
         <v>48</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
@@ -2156,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
@@ -2288,7 +2291,7 @@
         <v>50</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
@@ -2422,7 +2425,7 @@
         <v>55</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
@@ -2554,7 +2557,7 @@
         <v>55</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>55</v>
